--- a/data/trans_dic/P10_1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P10_1-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene acceso a internet con datos de teléfono móvil</t>
+          <t>Población que tiene acceso a internet con datos de teléfono móvil (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>86,53%</t>
+          <t>83,33%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>87,3%</t>
+          <t>82,97%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>93,84%</t>
+          <t>93,36%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>93,14%</t>
+          <t>93,32%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>90,54%</t>
+          <t>89,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>90,33%</t>
+          <t>88,73%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>75,13; 93,4</t>
+          <t>66,78; 93,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>75,11; 93,71</t>
+          <t>66,24; 93,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,49; 98,41</t>
+          <t>82,89; 97,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>84,94; 97,96</t>
+          <t>83,56; 97,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>84,77; 95,06</t>
+          <t>80,08; 94,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>83,56; 95,0</t>
+          <t>79,62; 94,63</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>90,44%</t>
+          <t>95,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>94,04%</t>
+          <t>91,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>92,7%</t>
+          <t>90,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>93,84%</t>
+          <t>92,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>91,63%</t>
+          <t>93,08%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>85,67; 97,67</t>
+          <t>82,68; 98,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>80,65; 95,89</t>
+          <t>85,03; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>87,97; 97,92</t>
+          <t>81,46; 96,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>85,79; 96,52</t>
+          <t>80,03; 95,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,23; 96,72</t>
+          <t>86,56; 97,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>86,25; 95,25</t>
+          <t>86,5; 97,18</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>93,51%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>93,23%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>92,45%</t>
+          <t>92,91%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>91,4%</t>
+          <t>90,87%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>93,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,96%</t>
+          <t>91,77%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>88,05; 97,38</t>
+          <t>84,06; 98,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90,35; 98,03</t>
+          <t>84,24; 98,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,26; 95,86</t>
+          <t>87,22; 96,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>85,79; 95,12</t>
+          <t>84,06; 95,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>89,44; 95,75</t>
+          <t>88,6; 96,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>89,58; 95,77</t>
+          <t>87,24; 95,36</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>91,96%</t>
+          <t>92,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>91,11%</t>
+          <t>92,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>86,44%</t>
+          <t>87,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>87,41%</t>
+          <t>87,03%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>88,92%</t>
+          <t>89,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>89,06%</t>
+          <t>89,45%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>86,28; 95,93</t>
+          <t>84,72; 97,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,9; 95,36</t>
+          <t>84,61; 97,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>79,78; 91,06</t>
+          <t>79,95; 93,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>80,83; 91,84</t>
+          <t>79,17; 92,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>84,54; 92,04</t>
+          <t>84,2; 93,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>84,85; 92,18</t>
+          <t>83,88; 93,21</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>82,75%</t>
+          <t>84,18%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>82,02%</t>
+          <t>82,8%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>86,62%</t>
+          <t>83,86%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>85,8%</t>
+          <t>82,32%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>84,63%</t>
+          <t>84,04%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>83,83%</t>
+          <t>82,6%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>72,88; 89,75</t>
+          <t>67,55; 92,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>69,04; 89,85</t>
+          <t>63,41; 91,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>78,49; 92,25</t>
+          <t>71,36; 92,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>77,36; 91,56</t>
+          <t>70,31; 90,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>78,42; 89,21</t>
+          <t>74,27; 90,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>75,95; 88,53</t>
+          <t>70,06; 88,89</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>74,7%</t>
+          <t>78,06%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>73,69%</t>
+          <t>77,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>71,08%</t>
+          <t>76,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>70,24%</t>
+          <t>73,49%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>72,69%</t>
+          <t>77,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>71,75%</t>
+          <t>75,45%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>64,63; 84,58</t>
+          <t>61,88; 89,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>63,06; 83,64</t>
+          <t>62,48; 89,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>61,52; 80,38</t>
+          <t>61,49; 88,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>59,44; 78,94</t>
+          <t>58,07; 86,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>65,11; 78,81</t>
+          <t>66,44; 85,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>64,42; 78,05</t>
+          <t>64,3; 83,78</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>87,83%</t>
+          <t>88,55%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>87,53%</t>
+          <t>88,55%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>87,46%</t>
+          <t>88,4%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>87,08%</t>
+          <t>87,03%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>87,63%</t>
+          <t>88,47%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>87,29%</t>
+          <t>87,73%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>84,71; 90,54</t>
+          <t>83,96; 91,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>84,18; 90,36</t>
+          <t>83,49; 92,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>84,77; 89,83</t>
+          <t>84,87; 91,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>84,48; 89,46</t>
+          <t>83,35; 89,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>85,74; 89,68</t>
+          <t>85,85; 90,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>85,21; 89,32</t>
+          <t>85,1; 90,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene acceso a internet con datos de teléfono móvil (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>71756</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>88798</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>109761</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>125056</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>181517</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>213854</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>57506; 80724</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>70891; 100128</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>97453; 115056</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>111979; 131178</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>163101; 192851</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>191907; 228090</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>128558</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>161549</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>122053</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>149185</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>250610</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>310734</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>113129; 134755</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>143473; 168742</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>108589; 129130</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>132135; 158443</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>233824; 262999</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>288784; 324444</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>130217</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>151081</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>200135</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>239974</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>330352</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>391055</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>117449; 137102</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>136511; 159181</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>187870; 208739</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>221976; 251944</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>314638; 342494</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>371772; 406374</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>150946</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>172274</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>167104</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>190041</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>318050</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>362315</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>138502; 159111</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>157955; 181733</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>152933; 178014</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>172883; 202641</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>298722; 331306</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>339763; 377551</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>116915</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>130352</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>86782</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>95656</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>203698</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>226007</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>93819; 128370</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>99814; 144121</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>73849; 95375</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>81696; 105195</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>180012; 218628</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>191687; 243235</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>70438</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>85168</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>81558</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>101128</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>151996</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>186295</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>55838; 81124</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>68305; 98282</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>65811; 94387</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>79911; 118380</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>131064; 168467</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>158761; 206870</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>277.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>352.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>347.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>629.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>625.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>668831</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>789221</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>767393</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>901039</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1436224</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1690261</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>634158; 693216</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>744118; 820036</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>736758; 790854</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>862967; 931674</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1393699; 1472901</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1639504; 1736309</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>